--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/18.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/18.xlsx
@@ -479,13 +479,13 @@
         <v>0.06857648579789359</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.482138470460273</v>
+        <v>-2.497709153325769</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06079252642515062</v>
+        <v>-0.0548968522340613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1889253387553278</v>
+        <v>0.1925652386459632</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09790988660813453</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.676921296196266</v>
+        <v>-2.695681454116352</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1145865382865907</v>
+        <v>-0.1116620619605006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2434814957202222</v>
+        <v>0.2490355186580389</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1322143935160937</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.961138637716827</v>
+        <v>-2.983264936510502</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2070470037395659</v>
+        <v>-0.2031150942307488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2586236544710364</v>
+        <v>0.2639367694738531</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.164216984702189</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.174008539202997</v>
+        <v>-3.196599863313627</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2956281214149967</v>
+        <v>-0.2963333246429056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2667546622893069</v>
+        <v>0.2728270022993962</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1933245985214346</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.226720655429073</v>
+        <v>-3.25043037637734</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3492162664956187</v>
+        <v>-0.3543716963046172</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2991502093303891</v>
+        <v>0.3060416363194782</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2218082461214699</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.008888050481905</v>
+        <v>-3.031093921896535</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4041607962526948</v>
+        <v>-0.4112551699264201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2970039386367533</v>
+        <v>0.3054138156403874</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2550931001954706</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.650868928086137</v>
+        <v>-2.666546194462269</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5102741714037572</v>
+        <v>-0.5224086310872994</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2855571616040291</v>
+        <v>0.2951452974170266</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.3015905739368382</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.223105498459797</v>
+        <v>-2.24133784899502</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5135914006663017</v>
+        <v>-0.5284108887890251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.286694539066847</v>
+        <v>0.2977514832592986</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3726093426637769</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.847815467196671</v>
+        <v>-1.869588434352347</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5817858668483744</v>
+        <v>-0.5992115408133697</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3015855695460248</v>
+        <v>0.313336036581658</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.475114136960532</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.341443048355807</v>
+        <v>-1.365586403587073</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7226673671882456</v>
+        <v>-0.7435883962828763</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3159524427605664</v>
+        <v>0.3279394375869268</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6118415932431627</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7848989969670471</v>
+        <v>-0.8050374402849508</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8913627836599276</v>
+        <v>-0.9136431175271943</v>
       </c>
       <c r="G12" t="n">
-        <v>0.363214199463281</v>
+        <v>0.3761108042502775</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7813915756738918</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2768081015231835</v>
+        <v>-0.3006200258378135</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.188548272323939</v>
+        <v>-1.208263301695479</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3984685206663624</v>
+        <v>0.4116512948791771</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.9714377015842108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3200799987135653</v>
+        <v>0.2955292900649355</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.616323382335006</v>
+        <v>-1.639316219670636</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4949222176479729</v>
+        <v>0.507154500553606</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.167887625700029</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9346346808503093</v>
+        <v>0.9076164909280439</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.011794928334718</v>
+        <v>-2.035619993082166</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5814694883327678</v>
+        <v>0.5937353523444918</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.371326239731983</v>
       </c>
       <c r="E16" t="n">
-        <v>1.427529395763995</v>
+        <v>1.402255963310366</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.394812994143024</v>
+        <v>-2.416855340171472</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7029732304100988</v>
+        <v>0.7146798960030047</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.591762587294498</v>
       </c>
       <c r="E17" t="n">
-        <v>1.964264974703396</v>
+        <v>1.938486365610313</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.751262564841065</v>
+        <v>-2.772738412210241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8166423544316138</v>
+        <v>0.8279883881460652</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.837856848634156</v>
       </c>
       <c r="E18" t="n">
-        <v>2.370746743356651</v>
+        <v>2.345423669267931</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.095730250881063</v>
+        <v>-3.117854359602602</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9527027759753045</v>
+        <v>0.9662447220184827</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.107929260633436</v>
       </c>
       <c r="E19" t="n">
-        <v>2.815324086797895</v>
+        <v>2.792737142831538</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.36745031076749</v>
+        <v>-3.386839019390712</v>
       </c>
       <c r="G19" t="n">
-        <v>1.131437483120075</v>
+        <v>1.145908019749071</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.38585676632776</v>
       </c>
       <c r="E20" t="n">
-        <v>3.124842601685812</v>
+        <v>3.100989796024637</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.638860110434599</v>
+        <v>-3.659418317578639</v>
       </c>
       <c r="G20" t="n">
-        <v>1.273019806543582</v>
+        <v>1.288251028227942</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.649794982076811</v>
       </c>
       <c r="E21" t="n">
-        <v>3.46795974324172</v>
+        <v>3.448894435270634</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.865711432439311</v>
+        <v>-3.884456259854442</v>
       </c>
       <c r="G21" t="n">
-        <v>1.392240033406732</v>
+        <v>1.408341443753273</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.881109650669135</v>
       </c>
       <c r="E22" t="n">
-        <v>3.786391851724634</v>
+        <v>3.771808891392638</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.036715184942719</v>
+        <v>-4.055547615243305</v>
       </c>
       <c r="G22" t="n">
-        <v>1.463934234862713</v>
+        <v>1.477706868504254</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.063777539005892</v>
       </c>
       <c r="E23" t="n">
-        <v>3.983559666017127</v>
+        <v>3.974137975686493</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.153675257361143</v>
+        <v>-4.166038944594957</v>
       </c>
       <c r="G23" t="n">
-        <v>1.545276434103418</v>
+        <v>1.557148085130597</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.187481778993223</v>
       </c>
       <c r="E24" t="n">
-        <v>4.144985503044174</v>
+        <v>4.138108676535994</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.216385782913762</v>
+        <v>-4.225793602787532</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597302327726768</v>
+        <v>1.61009526909931</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.251566571799871</v>
       </c>
       <c r="E25" t="n">
-        <v>4.238367258842513</v>
+        <v>4.231088919109333</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.250067632322935</v>
+        <v>-4.259570355322614</v>
       </c>
       <c r="G25" t="n">
-        <v>1.612847459750673</v>
+        <v>1.624724950970215</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.26178315580441</v>
       </c>
       <c r="E26" t="n">
-        <v>4.268495351198414</v>
+        <v>4.26291212729878</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.170478950839411</v>
+        <v>-4.177284234991136</v>
       </c>
       <c r="G26" t="n">
-        <v>1.570367360545684</v>
+        <v>1.581714854308226</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.224036995455811</v>
       </c>
       <c r="E27" t="n">
-        <v>4.22971793395197</v>
+        <v>4.222898049319335</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.102005615471975</v>
+        <v>-4.103881047244747</v>
       </c>
       <c r="G27" t="n">
-        <v>1.544188698275691</v>
+        <v>1.555823821512142</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.145966658102702</v>
       </c>
       <c r="E28" t="n">
-        <v>4.18082530353171</v>
+        <v>4.177017498110621</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.938089666425882</v>
+        <v>-3.939024827228109</v>
       </c>
       <c r="G28" t="n">
-        <v>1.461493034454713</v>
+        <v>1.472377692972438</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.034671170474209</v>
       </c>
       <c r="E29" t="n">
-        <v>4.021447913976208</v>
+        <v>4.014915658817483</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.769808173587973</v>
+        <v>-3.766813614953519</v>
       </c>
       <c r="G29" t="n">
-        <v>1.356030840752196</v>
+        <v>1.364357495014648</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.896606250363191</v>
       </c>
       <c r="E30" t="n">
-        <v>3.919748264203962</v>
+        <v>3.913922672321237</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.61002927080747</v>
+        <v>-3.607850149031789</v>
       </c>
       <c r="G30" t="n">
-        <v>1.267566526924038</v>
+        <v>1.274354290498673</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.739909316335418</v>
       </c>
       <c r="E31" t="n">
-        <v>3.760797208691005</v>
+        <v>3.754295614542189</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.459354497897829</v>
+        <v>-3.454675773790512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.173216759241427</v>
+        <v>1.180211849644971</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.575265385751991</v>
       </c>
       <c r="E32" t="n">
-        <v>3.595918357928958</v>
+        <v>3.587544982127597</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.276178324460515</v>
+        <v>-3.271044795372879</v>
       </c>
       <c r="G32" t="n">
-        <v>1.053765844779914</v>
+        <v>1.056937069233367</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.410932969701929</v>
       </c>
       <c r="E33" t="n">
-        <v>3.416059413754188</v>
+        <v>3.407370667565191</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.135948735593234</v>
+        <v>-3.13079257576019</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9992330485844738</v>
+        <v>1.004654207146018</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.252432706647499</v>
       </c>
       <c r="E34" t="n">
-        <v>3.213363857389516</v>
+        <v>3.205757006835881</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.114815999525422</v>
+        <v>-3.114104956105149</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9015003494752274</v>
+        <v>0.9025910053991362</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.10423361702174</v>
       </c>
       <c r="E35" t="n">
-        <v>2.904692170394326</v>
+        <v>2.891312289689238</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.999597764479452</v>
+        <v>-2.998270580764816</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8516353270264225</v>
+        <v>0.8538049584895129</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.967649432250089</v>
       </c>
       <c r="E36" t="n">
-        <v>2.624053406744583</v>
+        <v>2.612889879041495</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.943190996559331</v>
+        <v>-2.942800433695013</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7816873430871686</v>
+        <v>0.7823662654494411</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.841352359162116</v>
       </c>
       <c r="E37" t="n">
-        <v>2.357222317890564</v>
+        <v>2.340034631764386</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.877666958335531</v>
+        <v>-2.879021152939849</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7295475657127281</v>
+        <v>0.7323712987205455</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.724397958293666</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049079168304283</v>
+        <v>2.031635973762197</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.803332259907141</v>
+        <v>-2.806317328229004</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6542397452317483</v>
+        <v>0.6571481610288384</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.615328362755597</v>
       </c>
       <c r="E39" t="n">
-        <v>1.758970532736906</v>
+        <v>1.739233602644002</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.680810134286402</v>
+        <v>-2.684474854994582</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6268945045371193</v>
+        <v>0.6301825328378456</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.510357676573839</v>
       </c>
       <c r="E40" t="n">
-        <v>1.513393363942245</v>
+        <v>1.489425214481888</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.564225294227342</v>
+        <v>-2.567982727989296</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5544454582181387</v>
+        <v>0.5569844818482289</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.408534310558621</v>
       </c>
       <c r="E41" t="n">
-        <v>1.270175632862492</v>
+        <v>1.244099173958863</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.451528562234372</v>
+        <v>-2.454688836327144</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4900821582266106</v>
+        <v>0.4918152353105192</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.308583287513269</v>
       </c>
       <c r="E42" t="n">
-        <v>1.051099796965914</v>
+        <v>1.023342822709649</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.332430979410859</v>
+        <v>-2.334669233134222</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4222030624321742</v>
+        <v>0.424109885238901</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.208560442319593</v>
       </c>
       <c r="E43" t="n">
-        <v>0.846367473514424</v>
+        <v>0.8185345767574315</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.229168348157295</v>
+        <v>-2.229837780206977</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3639851048552808</v>
+        <v>0.3643515769260989</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.108129617642875</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6836845350811041</v>
+        <v>0.6535637429656576</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.166270206424994</v>
+        <v>-2.167536798143858</v>
       </c>
       <c r="G44" t="n">
-        <v>0.272621135518578</v>
+        <v>0.2705318067004877</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.007671271817709</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5045103534609703</v>
+        <v>0.4750568033230691</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.060345177477659</v>
+        <v>-2.059840000838205</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2402197482851322</v>
+        <v>0.2385421530286781</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9067977330822932</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3355141670825612</v>
+        <v>0.30565910371966</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.987966943491088</v>
+        <v>-1.986385711408634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2163990636819568</v>
+        <v>0.2146338655400482</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.806364726437776</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1560246150747912</v>
+        <v>0.1223135647038002</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.931647048432376</v>
+        <v>-1.931633177975512</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1451384965089759</v>
+        <v>0.1434682014929763</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7086783848355586</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03453985362264196</v>
+        <v>0.002245049899832448</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.874512446538936</v>
+        <v>-1.873627657395846</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1324740393684339</v>
+        <v>0.1306781802166161</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6152219138152907</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.09546720853614131</v>
+        <v>-0.1273970002362237</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.802059020075683</v>
+        <v>-1.799418523103275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08094456209599313</v>
+        <v>0.07926696683953904</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5284154220639866</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2034392249069305</v>
+        <v>-0.2361238614700126</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.776270190645963</v>
+        <v>-1.772729574025509</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04353374986263954</v>
+        <v>0.03982814780791327</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4510459627835647</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3194648665471721</v>
+        <v>-0.3507697576643455</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.725272170878613</v>
+        <v>-1.721741774594796</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04057569243045852</v>
+        <v>0.0372321823022776</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3834421857401291</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3708731598280673</v>
+        <v>-0.3994024995244234</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.71993423505825</v>
+        <v>-1.718732615479433</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02194064672607015</v>
+        <v>-0.0230400629385244</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3253071195265838</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4729568022482218</v>
+        <v>-0.5038616401884862</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.71262231421898</v>
+        <v>-1.711049842425071</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02641569412470531</v>
+        <v>-0.02783340082097766</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.276815128163878</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5015387036758504</v>
+        <v>-0.527948053544207</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.695786499682712</v>
+        <v>-1.693520505045621</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05967558963560547</v>
+        <v>-0.06068010272215066</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2363733416247014</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6227007944999088</v>
+        <v>-0.6508081802979921</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.676620448393353</v>
+        <v>-1.674999795012444</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08670691999068912</v>
+        <v>-0.08821660971668871</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2024418565936945</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7048474802387049</v>
+        <v>-0.731983934056334</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.634844092368182</v>
+        <v>-1.630926783340275</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1058554507029567</v>
+        <v>-0.1071286126382291</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1749107307429057</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8367204838576695</v>
+        <v>-0.8649169325892984</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.677000060896989</v>
+        <v>-1.674837729674354</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1056481238740477</v>
+        <v>-0.1051809084849569</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1532027004588994</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9056303736042874</v>
+        <v>-0.9322076290030985</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.644153358995816</v>
+        <v>-1.639744013761272</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1496160120836722</v>
+        <v>-0.150338735888672</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1370737494960489</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.024187738634165</v>
+        <v>-1.052922945111339</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.653534167979905</v>
+        <v>-1.645398780017362</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1732089291846659</v>
+        <v>-0.1753099383874835</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1260468420665278</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.057554217655701</v>
+        <v>-1.083094838909967</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.655283305592813</v>
+        <v>-1.649266447410179</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1878970129792074</v>
+        <v>-0.1905250995428431</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1196847917888118</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.14095800480077</v>
+        <v>-1.1643202343034</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.69449873726653</v>
+        <v>-1.687414583929441</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2421217390274656</v>
+        <v>-0.2435087847138288</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.117075139968863</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.193259847513301</v>
+        <v>-1.214582389832932</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.69498055313653</v>
+        <v>-1.685538422132624</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2890301640921802</v>
+        <v>-0.2909618077164525</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1178782332296383</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.2656096105621</v>
+        <v>-1.286229869750003</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.74736123844597</v>
+        <v>-1.739402516302427</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3075508741253571</v>
+        <v>-0.3097234256846292</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1213770339818093</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.337338853172262</v>
+        <v>-1.358959245302438</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.777623655226235</v>
+        <v>-1.769879560152055</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3558448848283441</v>
+        <v>-0.3599768209256157</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1266122014516012</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.361464687826438</v>
+        <v>-1.384390362949886</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.861689574180531</v>
+        <v>-1.852447469765079</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3547410884716172</v>
+        <v>-0.3592015353893432</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1327795954610634</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.386170161572704</v>
+        <v>-1.41040987997797</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.968608165853729</v>
+        <v>-1.961764190427595</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3851801710708817</v>
+        <v>-0.3905560681416075</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1390325046983212</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.426522970709238</v>
+        <v>-1.451010897289959</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.042406296608709</v>
+        <v>-2.03569810565503</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.358069998118889</v>
+        <v>-0.362674989797615</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1449698799661479</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.455544346612231</v>
+        <v>-1.478553244476861</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.152493922663225</v>
+        <v>-2.147201978357727</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.424034970866144</v>
+        <v>-0.4301949137616878</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1506851241508691</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.453481298659777</v>
+        <v>-1.473977453759953</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.299742692727549</v>
+        <v>-2.299009748585913</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4401407613569578</v>
+        <v>-0.4465854136302289</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1566213809902858</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.470953694163681</v>
+        <v>-1.492178413261221</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.423597112231243</v>
+        <v>-2.426889520676243</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4556785931404082</v>
+        <v>-0.4593403937524073</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.163639784073909</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.511195539645307</v>
+        <v>-1.536146301470845</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.584984257983882</v>
+        <v>-2.593205788783789</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5158369546301194</v>
+        <v>-0.5212040914122997</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1730213982468237</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.517386143550759</v>
+        <v>-1.544687582802661</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.677904638585493</v>
+        <v>-2.687288367665764</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.532617287338933</v>
+        <v>-0.537752276474659</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1847804481684089</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.502915606921763</v>
+        <v>-1.531582191138665</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.798615574549461</v>
+        <v>-2.813398561469911</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5355519840016595</v>
+        <v>-0.5395846368287494</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1991103792134093</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.55448742558884</v>
+        <v>-1.584600917463832</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.930581291222198</v>
+        <v>-2.949975110013738</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5425266337319303</v>
+        <v>-0.5470031411786564</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2155563765314279</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.435369402092054</v>
+        <v>-1.469051251501227</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.993412270742318</v>
+        <v>-3.017353409312993</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5796293758181023</v>
+        <v>-0.5857936988579188</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2334255877214281</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.323249389094993</v>
+        <v>-1.353873897801803</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.05246391577912</v>
+        <v>-3.079801126209249</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5708997482825591</v>
+        <v>-0.5761719819388305</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.252267362051918</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.214139995261386</v>
+        <v>-1.246845072497741</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.130080072291826</v>
+        <v>-3.161843418509545</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5383289954705679</v>
+        <v>-0.5434785850872028</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2707195967021063</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.073782652186151</v>
+        <v>-1.105414594075688</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.182733786594267</v>
+        <v>-3.21391019347944</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5501013632275646</v>
+        <v>-0.5556918873676541</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2878489667438933</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8696737692694789</v>
+        <v>-0.9001508131191071</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.248076048830749</v>
+        <v>-3.284118796002922</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5504984963082918</v>
+        <v>-0.5565766765107447</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3028351306979452</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6565111281410816</v>
+        <v>-0.6852492547144375</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.279884656539286</v>
+        <v>-3.317745893608685</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5097587744276665</v>
+        <v>-0.5139038509577563</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.3154554900658498</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4076357107090575</v>
+        <v>-0.4361796508863225</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.321661012564457</v>
+        <v>-3.361249486525401</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4737612887463125</v>
+        <v>-0.4782377961930385</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.3260663876835222</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1312033456092226</v>
+        <v>-0.1560504440203069</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.264449758146245</v>
+        <v>-3.303378290370098</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4387566357667764</v>
+        <v>-0.4429338333548662</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3354232375755876</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1479096677855206</v>
+        <v>0.1256614549762539</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.250469067651748</v>
+        <v>-3.288998276722738</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4198490129895088</v>
+        <v>-0.4229297144613261</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3443372789128574</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4757211252044326</v>
+        <v>0.4588692501391644</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.201909328196216</v>
+        <v>-3.243437476045933</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3723916098426124</v>
+        <v>-0.3751876019367026</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3532481942923552</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7470973437654507</v>
+        <v>0.7319800058321819</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.103467045714788</v>
+        <v>-3.143139472440959</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.331300016372078</v>
+        <v>-0.335633439105895</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3619537870786</v>
       </c>
       <c r="E86" t="n">
-        <v>1.007556782750744</v>
+        <v>0.9944251102211115</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.009473529766359</v>
+        <v>-3.047960397442712</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2536955402440988</v>
+        <v>-0.2545832494833713</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3698047202802227</v>
       </c>
       <c r="E87" t="n">
-        <v>1.195907366622239</v>
+        <v>1.184057616316424</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.883903553755847</v>
+        <v>-2.920418626485428</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2201129741051079</v>
+        <v>-0.2227483609091981</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.375302971755011</v>
       </c>
       <c r="E88" t="n">
-        <v>1.362024338165376</v>
+        <v>1.353087383800924</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.650377621903546</v>
+        <v>-2.68418138532831</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2178060981214721</v>
+        <v>-0.2214795791181984</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3758312839328001</v>
       </c>
       <c r="E89" t="n">
-        <v>1.505777753100065</v>
+        <v>1.498531534424885</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.4152850584497</v>
+        <v>-2.444869282891738</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1484494336590362</v>
+        <v>-0.1498233389125813</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3687017638870393</v>
       </c>
       <c r="E90" t="n">
-        <v>1.622437055611761</v>
+        <v>1.618118233358853</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.132584706895594</v>
+        <v>-2.157596060716906</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1479252763944</v>
+        <v>-0.1503153751192175</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3510240430461021</v>
       </c>
       <c r="E91" t="n">
-        <v>1.671888884450839</v>
+        <v>1.673097804270111</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.844420855385308</v>
+        <v>-1.864051201967575</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08629372638096196</v>
+        <v>-0.08855680092187045</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3205400371210539</v>
       </c>
       <c r="E92" t="n">
-        <v>1.644661907651573</v>
+        <v>1.647320655225118</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.498022985769128</v>
+        <v>-1.516159703154396</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09886766053986767</v>
+        <v>-0.1019337615307759</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.275643539902358</v>
       </c>
       <c r="E93" t="n">
-        <v>1.67545724198502</v>
+        <v>1.680260800204109</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.160315322390037</v>
+        <v>-1.169647949787125</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.126160339503224</v>
+        <v>-0.1293534646780413</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2172174952969813</v>
       </c>
       <c r="E94" t="n">
-        <v>1.63805226994403</v>
+        <v>1.642371092196937</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9240401199825552</v>
+        <v>-0.9317404136140076</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1292059998208595</v>
+        <v>-0.1320852146561315</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1487063292056681</v>
       </c>
       <c r="E95" t="n">
-        <v>1.63246174580394</v>
+        <v>1.637755880181575</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6382240258024501</v>
+        <v>-0.6429516615208125</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1893760416952979</v>
+        <v>-0.1955608054083872</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07589516882900599</v>
       </c>
       <c r="E96" t="n">
-        <v>1.544488008134328</v>
+        <v>1.549466772124326</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3688816542320679</v>
+        <v>-0.3687429496634316</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2171008948935632</v>
+        <v>-0.2229352470648344</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.006439676401499318</v>
       </c>
       <c r="E97" t="n">
-        <v>1.424818086459178</v>
+        <v>1.427434492638086</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1816684478233909</v>
+        <v>-0.1789629787109371</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3166659543569001</v>
+        <v>-0.3244100494310798</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05296479787747163</v>
       </c>
       <c r="E98" t="n">
-        <v>1.344337315592108</v>
+        <v>1.347250111533471</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02215673384352464</v>
+        <v>-0.01486817377370841</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.314732850684537</v>
+        <v>-0.3215877764713533</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09832819899520839</v>
       </c>
       <c r="E99" t="n">
-        <v>1.20042329536742</v>
+        <v>1.20347625592551</v>
       </c>
       <c r="F99" t="n">
-        <v>0.086208035463719</v>
+        <v>0.09367180130444426</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3286412687985332</v>
+        <v>-0.3367416156068947</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1293610934768916</v>
       </c>
       <c r="E100" t="n">
-        <v>1.041260532881281</v>
+        <v>1.041479540094917</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1698965319865147</v>
+        <v>0.1766156733008765</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3638766093764329</v>
+        <v>-0.3716265446429762</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1490052661492378</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8894826936389578</v>
+        <v>0.8880343259327764</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2197615544353195</v>
+        <v>0.2255039235768634</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3234215968735347</v>
+        <v>-0.3287814334152605</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1650163897897201</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7826670353561683</v>
+        <v>0.7789687335418967</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2394561431335869</v>
+        <v>0.2454715412681308</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3431395463412567</v>
+        <v>-0.3490527411094368</v>
       </c>
     </row>
   </sheetData>
